--- a/BackTest/2020-01-21 BackTest REP.xlsx
+++ b/BackTest/2020-01-21 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2191.748</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2191.6728</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2191.6728</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2191.5613</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2152.4151</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2152.463</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2152.6404</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2295.4885</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2317.067314294912</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2350.567314294912</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2323.827114294912</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2393.243814294912</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2390.788814294912</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2204.016014294912</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1993.225614294912</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1762.038750513881</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1774.400650513881</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1776.400650513881</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1837.221650513881</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1836.40405032231</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1986.80805032231</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2507.09135032231</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2507.09135032231</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2650.87815032231</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2741.56005032231</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2823.19405032231</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2806.94315032231</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2806.94315032231</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2804.31865032231</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2872.42825032231</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2872.50815032231</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3068.434450322311</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3068.434450322311</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3008.88515032231</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2990.999650322311</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3062.900350322311</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3062.824550322311</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3058.304150322311</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3058.304150322311</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3046.328850322311</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3046.328850322311</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2894.179950322312</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2844.179950322312</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2757.365250322312</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-2778.137450322312</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2571.658050322312</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2571.658050322312</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-2510.691950322312</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2415.789350322312</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2418.167950322312</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2451.258150322312</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2449.583850322312</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2462.781850322312</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-2456.144750322312</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-2468.342050322312</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2466.269050322312</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2459.338350322312</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2459.338350322312</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2491.537550322312</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2493.610550322312</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2493.610550322312</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2493.051050322312</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2494.870150322312</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2451.788250322312</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2451.788250322312</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2356.466150322312</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2381.236150322312</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2089.807850322312</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1857.157850322312</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1717.487550322312</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1824.527350322312</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1869.598950322312</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1922.296650322312</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1246.777350322312</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1247.482350322312</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1153.067150322312</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1154.362150322312</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1154.827950322312</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1368.483250322312</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1371.845450322312</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1358.011750322312</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1400.962450322312</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1400.962450322312</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1400.962450322312</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1512.803850322312</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1512.803850322312</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1522.316850322312</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1522.316850322312</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1521.386850322312</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1524.556850322312</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1614.128950322312</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1615.300550322312</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1664.415350322312</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1664.980850322312</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1663.982350322312</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1663.982350322312</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1663.982350322312</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1556.854150322312</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1556.854150322312</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1574.846150322312</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1574.846150322312</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1559.349150322312</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -13750,10 +13750,14 @@
         <v>-8719.503229556356</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>14940</v>
+      </c>
+      <c r="J405" t="n">
+        <v>14940</v>
+      </c>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
@@ -13786,8 +13790,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13826,19 @@
         <v>-8750.976729556356</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>14950</v>
+      </c>
+      <c r="J407" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13867,19 @@
         <v>-8750.921929556356</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>14910</v>
+      </c>
+      <c r="J408" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13908,19 @@
         <v>-8643.687929556356</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>14960</v>
+      </c>
+      <c r="J409" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,15 +13949,19 @@
         <v>-8643.687929556356</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>15010</v>
       </c>
       <c r="J410" t="n">
-        <v>15010</v>
-      </c>
-      <c r="K410" t="inlineStr"/>
+        <v>14940</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,17 +13990,17 @@
         <v>-8397.283029556356</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>15010</v>
       </c>
       <c r="J411" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -13993,13 +14031,13 @@
         <v>-8397.283029556356</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>15040</v>
       </c>
       <c r="J412" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14034,13 +14072,13 @@
         <v>-8457.319129556356</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>15040</v>
       </c>
       <c r="J413" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14075,13 +14113,13 @@
         <v>-8457.471629556356</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>15010</v>
       </c>
       <c r="J414" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14116,13 +14154,13 @@
         <v>-8457.471629556356</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>15000</v>
       </c>
       <c r="J415" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14157,13 +14195,13 @@
         <v>-8615.750529556355</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>15000</v>
       </c>
       <c r="J416" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14198,13 +14236,13 @@
         <v>-8544.041829556356</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>14960</v>
       </c>
       <c r="J417" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14239,13 +14277,11 @@
         <v>-8764.630529556356</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>15070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14284,7 +14320,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14323,7 +14359,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14362,7 +14398,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14401,7 +14437,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14440,7 +14476,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14479,7 +14515,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14518,7 +14554,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14557,7 +14593,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14596,7 +14632,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14635,7 +14671,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14674,7 +14710,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14713,7 +14749,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14752,7 +14788,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14787,11 +14823,13 @@
         <v>-8029.4136839864</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>15140</v>
+      </c>
       <c r="J432" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14830,7 +14868,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14869,7 +14907,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14908,7 +14946,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14947,7 +14985,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -14986,7 +15024,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15025,7 +15063,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15064,7 +15102,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15103,7 +15141,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15142,7 +15180,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>15010</v>
+        <v>14940</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15155,6 +15193,6 @@
       <c r="M441" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest REP.xlsx
+++ b/BackTest/2020-01-21 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2190.9946</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2191.748</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2191.6728</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2035.481914294912</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2109.446714294912</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2145.001414294912</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2381.894214294912</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2427.428914294912</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2314.051814294912</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2204.016014294912</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1993.225614294912</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1762.038750513881</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1774.400650513881</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1776.400650513881</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1837.221650513881</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1836.40405032231</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1986.80805032231</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2507.09135032231</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2650.87815032231</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2741.56005032231</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2823.19405032231</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2806.94315032231</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2806.94315032231</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2804.31865032231</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2872.42825032231</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2872.50815032231</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3068.434450322311</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3068.434450322311</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3008.88515032231</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2990.999650322311</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3062.900350322311</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3062.824550322311</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3058.304150322311</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2894.179950322312</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2844.179950322312</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2850.261050322312</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2757.365250322312</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2757.365250322312</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-2778.137450322312</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2571.658050322312</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2571.658050322312</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-2510.691950322312</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2415.789350322312</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2418.167950322312</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2451.258150322312</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2449.583850322312</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2462.781850322312</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-2456.144750322312</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-2468.342050322312</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2466.269050322312</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2459.338350322312</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2459.338350322312</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2491.537550322312</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2493.610550322312</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2493.610550322312</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2493.051050322312</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2494.870150322312</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2451.788250322312</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2451.788250322312</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2356.466150322312</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2381.236150322312</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2089.807850322312</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1857.157850322312</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1717.487550322312</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1824.527350322312</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1869.598950322312</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1922.296650322312</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1246.777350322312</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1247.482350322312</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1153.067150322312</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1154.362150322312</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1154.827950322312</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1368.483250322312</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1371.845450322312</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1358.011750322312</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1400.962450322312</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1400.962450322312</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1400.962450322312</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1512.803850322312</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1512.803850322312</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1522.316850322312</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1522.316850322312</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1521.386850322312</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1524.556850322312</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1614.128950322312</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1615.300550322312</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1601.040350322312</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1664.415350322312</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1664.980850322312</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1663.982350322312</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1663.982350322312</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1663.982350322312</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1556.854150322312</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1556.854150322312</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1574.846150322312</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1574.846150322312</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1559.349150322312</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2831.909250322312</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2831.743950322312</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2844.366850322312</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3086.787750322312</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-3180.545950322312</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3220.269150322312</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3646.321550322312</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3646.374050322312</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-4085.004750322312</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-6403.52485032231</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13787,9 +13787,11 @@
         <v>-8699.380029556356</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>14940</v>
+      </c>
       <c r="J406" t="n">
         <v>14940</v>
       </c>
@@ -14511,7 +14513,7 @@
         <v>-8196.934838786145</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
@@ -14519,11 +14521,11 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>1</v>
+        <v>1.007717536813922</v>
       </c>
       <c r="M424" t="inlineStr"/>
     </row>
@@ -14550,17 +14552,11 @@
         <v>-7613.959383986399</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14589,17 +14585,11 @@
         <v>-7656.9541839864</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14628,17 +14618,11 @@
         <v>-7628.5541839864</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14667,17 +14651,11 @@
         <v>-7658.0429839864</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14706,17 +14684,11 @@
         <v>-7635.7417839864</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14748,14 +14720,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14784,17 +14750,11 @@
         <v>-8071.9489839864</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14823,19 +14783,11 @@
         <v>-8029.4136839864</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>15140</v>
-      </c>
-      <c r="J432" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14864,17 +14816,11 @@
         <v>-8027.583683986401</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14906,14 +14852,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14945,14 +14885,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14984,14 +14918,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15023,14 +14951,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15062,14 +14984,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15101,14 +15017,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15140,14 +15050,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15179,20 +15083,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>14940</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest REP.xlsx
+++ b/BackTest/2020-01-21 BackTest REP.xlsx
@@ -682,7 +682,7 @@
         <v>-2191.6728</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2191.5613</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2152.4151</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2152.463</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2152.6404</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2035.481914294912</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2036.062714294912</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2109.446714294912</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2145.001414294912</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2144.966114294912</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2381.894214294912</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2314.051814294912</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2317.067314294912</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2350.567314294912</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2323.827114294912</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2393.243814294912</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2390.788814294912</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1762.038750513881</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1774.400650513881</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1776.400650513881</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1837.221650513881</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1836.40405032231</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1986.80805032231</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2507.09135032231</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2804.41875032231</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3090.711750322311</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3058.304150322311</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3068.304150322311</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2797.564350322312</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2850.261050322312</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2757.365250322312</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2451.258150322312</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2491.537550322312</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2451.788250322312</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2356.466150322312</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1857.157850322312</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1717.417550322312</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1717.487550322312</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1782.626350322312</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1824.527350322312</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1869.598950322312</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1922.296650322312</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1246.777350322312</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1247.482350322312</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1153.067150322312</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1154.362150322312</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1154.827950322312</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2831.909250322312</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2831.831950322312</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2831.743950322312</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2844.366850322312</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3086.787750322312</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-3180.545950322312</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-3173.775450322312</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3220.269150322312</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3646.321550322312</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3646.374050322312</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-4085.004750322312</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-6403.52485032231</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13750,14 +13750,10 @@
         <v>-8719.503229556356</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>14940</v>
-      </c>
-      <c r="J405" t="n">
-        <v>14940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
@@ -13795,11 +13791,7 @@
       <c r="J406" t="n">
         <v>14940</v>
       </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14279,9 +14271,11 @@
         <v>-8764.630529556356</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>15070</v>
+      </c>
       <c r="J418" t="n">
         <v>14940</v>
       </c>
@@ -14357,9 +14351,11 @@
         <v>-8871.868229556356</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>15070</v>
+      </c>
       <c r="J420" t="n">
         <v>14940</v>
       </c>
@@ -14435,9 +14431,11 @@
         <v>-8959.043129556356</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>15020</v>
+      </c>
       <c r="J422" t="n">
         <v>14940</v>
       </c>
@@ -14513,7 +14511,7 @@
         <v>-8196.934838786145</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
@@ -14521,11 +14519,11 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>1.007717536813922</v>
+        <v>1</v>
       </c>
       <c r="M424" t="inlineStr"/>
     </row>
@@ -14552,11 +14550,17 @@
         <v>-7613.959383986399</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14585,11 +14589,17 @@
         <v>-7656.9541839864</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14618,11 +14628,17 @@
         <v>-7628.5541839864</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14651,11 +14667,17 @@
         <v>-7658.0429839864</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +14706,17 @@
         <v>-7635.7417839864</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14720,8 +14748,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14750,11 +14784,17 @@
         <v>-8071.9489839864</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14783,11 +14823,17 @@
         <v>-8029.4136839864</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14816,11 +14862,17 @@
         <v>-8027.583683986401</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14852,8 +14904,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +14943,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +14982,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14951,8 +15021,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +15060,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15017,8 +15099,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +15138,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15083,8 +15177,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>14940</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
